--- a/Datasets/Zillow_Rental_Rate_Smoothed.xlsx
+++ b/Datasets/Zillow_Rental_Rate_Smoothed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ea8e7c1a7f050da2/Documents/School/Data Analytics Bootcamp/Project/Datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ea8e7c1a7f050da2/Documents/GitHub/project-one/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{09244657-76A1-4B36-8740-6B29AA50C925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:40009_{09244657-76A1-4B36-8740-6B29AA50C925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39FD6CCD-BBC2-46F1-A087-B0D64E699162}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zillow_Rental_Rate_Smoothed" sheetId="1" r:id="rId1"/>
@@ -458,9 +458,6 @@
     <t>Median_Typical_Rental_Rate</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/research/data/</t>
   </si>
   <si>
@@ -471,12 +468,15 @@
   </si>
   <si>
     <t>Note: Data is Smoothed (not adjusted)</t>
+  </si>
+  <si>
+    <t>Data_Source_Link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -1030,12 +1030,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1070,6 +1064,12 @@
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1084,16 +1084,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G526" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
-  <autoFilter ref="A1:G526"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G526" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G526" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="City_Rank_by_Population(2021)" dataDxfId="8"/>
-    <tableColumn id="2" name="State" dataDxfId="7"/>
-    <tableColumn id="3" name="State_Abbrieviation" dataDxfId="6"/>
-    <tableColumn id="4" name="City" dataDxfId="5"/>
-    <tableColumn id="5" name="Observation_Date" dataDxfId="4"/>
-    <tableColumn id="6" name="Median_Typical_Rental_Rate" dataDxfId="3" dataCellStyle="Currency"/>
-    <tableColumn id="7" name="Link" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="City_Rank_by_Population(2021)" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="State" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="State_Abbrieviation" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="City" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Observation_Date" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Median_Typical_Rental_Rate" dataDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Data_Source_Link" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1395,11 +1395,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G526"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1433,7 +1433,7 @@
         <v>144</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1456,7 +1456,7 @@
         <v>2825.4551980876649</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1479,7 +1479,7 @@
         <v>2076.61250303203</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1502,7 +1502,7 @@
         <v>1616.1445178448998</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1525,7 +1525,7 @@
         <v>1306.4056019954551</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1548,7 +1548,7 @@
         <v>971.90939576213702</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1571,7 +1571,7 @@
         <v>1315.50085431408</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1594,7 +1594,7 @@
         <v>1044.34905663675</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1617,7 +1617,7 @@
         <v>1973.9200073760251</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1640,7 +1640,7 @@
         <v>1256.021262780755</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1663,7 +1663,7 @@
         <v>2630.8842518763349</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1686,7 +1686,7 @@
         <v>1295.14802972591</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1709,7 +1709,7 @@
         <v>1039.2743253417002</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1732,7 +1732,7 @@
         <v>1107.19207859988</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1755,7 +1755,7 @@
         <v>952.74585073957599</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1778,7 +1778,7 @@
         <v>857.25427856040142</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1801,7 +1801,7 @@
         <v>1148.181767499455</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1824,7 +1824,7 @@
         <v>3418.1677036398751</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1847,7 +1847,7 @@
         <v>1768.0770997366449</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1870,7 +1870,7 @@
         <v>1483.6163779814351</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1893,7 +1893,7 @@
         <v>930.02657941046095</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1916,7 +1916,7 @@
         <v>1241.9588277687151</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1939,7 +1939,7 @@
         <v>1040.0949234049549</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="24" x14ac:dyDescent="0.2">
@@ -1962,7 +1962,7 @@
         <v>2122.7048046640048</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1985,7 +1985,7 @@
         <v>2355.6515041564253</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -2008,7 +2008,7 @@
         <v>1067.33162448655</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2031,7 +2031,7 @@
         <v>1415.20938905555</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -2054,7 +2054,7 @@
         <v>833.60272889772295</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -2077,7 +2077,7 @@
         <v>892.342628650812</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -2100,7 +2100,7 @@
         <v>848.69800251290849</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -2123,7 +2123,7 @@
         <v>1313.44889047216</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -2146,7 +2146,7 @@
         <v>965.26496955229595</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -2169,7 +2169,7 @@
         <v>976.24414599766703</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2192,7 +2192,7 @@
         <v>1164.257552903475</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -2215,7 +2215,7 @@
         <v>915.26703980325351</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -2238,7 +2238,7 @@
         <v>1229.13188862538</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -2261,7 +2261,7 @@
         <v>938.68375789526351</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -2284,7 +2284,7 @@
         <v>864.71931474835151</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -2307,7 +2307,7 @@
         <v>1293.9756938249202</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -2330,7 +2330,7 @@
         <v>910.82817580208393</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -2353,7 +2353,7 @@
         <v>1124.0153091544898</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -2376,7 +2376,7 @@
         <v>1135.1621441562249</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -2399,7 +2399,7 @@
         <v>1301.288288076345</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -2422,7 +2422,7 @@
         <v>1433.62870232763</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -2445,7 +2445,7 @@
         <v>2029.8116737128</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -2468,7 +2468,7 @@
         <v>2192.9881306760353</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -2491,7 +2491,7 @@
         <v>1280.62574543955</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -2514,7 +2514,7 @@
         <v>858.87099672002398</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -2537,7 +2537,7 @@
         <v>1249.4481690166149</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -2560,7 +2560,7 @@
         <v>742.40817663523751</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -2583,7 +2583,7 @@
         <v>1100.20785093873</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -2606,7 +2606,7 @@
         <v>1265.1257541658649</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -2629,7 +2629,7 @@
         <v>1221.8099397480751</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -2652,7 +2652,7 @@
         <v>1367.8696301503901</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -2675,7 +2675,7 @@
         <v>917.77527016933198</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -2698,7 +2698,7 @@
         <v>1744.55191248754</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -2721,7 +2721,7 @@
         <v>1859.2181588631552</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -2744,7 +2744,7 @@
         <v>1130.266906127885</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -2767,7 +2767,7 @@
         <v>1069.1853313949</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -2790,7 +2790,7 @@
         <v>927.02393180079594</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -2813,7 +2813,7 @@
         <v>1125.820041972705</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -2836,7 +2836,7 @@
         <v>1475.8472209732699</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -2859,7 +2859,7 @@
         <v>2020.472911715395</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -2882,7 +2882,7 @@
         <v>1231.1268948555849</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -2905,7 +2905,7 @@
         <v>2218.6081436732702</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -2928,7 +2928,7 @@
         <v>828.13230652787547</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -2951,7 +2951,7 @@
         <v>1150.3484133787101</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -2974,7 +2974,7 @@
         <v>1089.8880175270951</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -2997,7 +2997,7 @@
         <v>1049.161566045585</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -3020,7 +3020,7 @@
         <v>900.09414633433948</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -3043,7 +3043,7 @@
         <v>863.63726709173307</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -3066,7 +3066,7 @@
         <v>875.22605179037441</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -3089,7 +3089,7 @@
         <v>1289.0251551680899</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -3112,7 +3112,7 @@
         <v>1472.59138620001</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -3135,7 +3135,7 @@
         <v>1097.7404565330751</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -3158,7 +3158,7 @@
         <v>2311.4908435355551</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -3181,7 +3181,7 @@
         <v>2862.2652695074448</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -3204,7 +3204,7 @@
         <v>2222.182613449525</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -3227,7 +3227,7 @@
         <v>1653.98109768882</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -3250,7 +3250,7 @@
         <v>1314.5283224043551</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -3273,7 +3273,7 @@
         <v>1030.8327468739899</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -3296,7 +3296,7 @@
         <v>1355.5056859198951</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -3319,7 +3319,7 @@
         <v>1083.2858291211051</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -3342,7 +3342,7 @@
         <v>2088.3474236648349</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -3365,7 +3365,7 @@
         <v>1321.5306731599098</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -3388,7 +3388,7 @@
         <v>2664.3118835165851</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -3411,7 +3411,7 @@
         <v>1318.1955069916999</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -3434,7 +3434,7 @@
         <v>1066.7538563384851</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -3457,7 +3457,7 @@
         <v>1172.372982961135</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -3480,7 +3480,7 @@
         <v>976.31579526302539</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -3503,7 +3503,7 @@
         <v>892.10924659813804</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -3526,7 +3526,7 @@
         <v>1195.6239828211001</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -3549,7 +3549,7 @@
         <v>3414.7381618577501</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -3572,7 +3572,7 @@
         <v>1871.933269392805</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -3595,7 +3595,7 @@
         <v>1525.615371831215</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -3618,7 +3618,7 @@
         <v>926.22553302686401</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -3641,7 +3641,7 @@
         <v>1304.6504759889549</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -3664,7 +3664,7 @@
         <v>1043.6086959905451</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="24" x14ac:dyDescent="0.2">
@@ -3687,7 +3687,7 @@
         <v>2166.8810019141752</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -3710,7 +3710,7 @@
         <v>2444.1437347379901</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -3733,7 +3733,7 @@
         <v>1112.4162427010699</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -3756,7 +3756,7 @@
         <v>1483.4335377654002</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -3779,7 +3779,7 @@
         <v>855.83475214856298</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -3802,7 +3802,7 @@
         <v>935.91921266003556</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -3825,7 +3825,7 @@
         <v>864.07055641297598</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -3848,7 +3848,7 @@
         <v>1325.5472904328149</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -3871,7 +3871,7 @@
         <v>971.09579930883797</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -3894,7 +3894,7 @@
         <v>995.96438026768692</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -3917,7 +3917,7 @@
         <v>1216.6688613889901</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -3940,7 +3940,7 @@
         <v>941.09821428475402</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -3963,7 +3963,7 @@
         <v>1334.326147125545</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -3986,7 +3986,7 @@
         <v>994.03763206340454</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -4009,7 +4009,7 @@
         <v>899.58544371109349</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -4032,7 +4032,7 @@
         <v>1387.95416201639</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -4055,7 +4055,7 @@
         <v>936.34172279458301</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -4078,7 +4078,7 @@
         <v>1195.4708361737551</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -4101,7 +4101,7 @@
         <v>1172.31865027249</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -4124,7 +4124,7 @@
         <v>1315.8061276957051</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -4147,7 +4147,7 @@
         <v>1562.0927303493499</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -4170,7 +4170,7 @@
         <v>2060.0335041969347</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -4193,7 +4193,7 @@
         <v>2457.6838016644901</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -4216,7 +4216,7 @@
         <v>1345.3465489782552</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -4239,7 +4239,7 @@
         <v>874.31092433648746</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -4262,7 +4262,7 @@
         <v>1257.14971338328</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -4285,7 +4285,7 @@
         <v>754.73006661895442</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -4308,7 +4308,7 @@
         <v>1153.7626229928801</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -4331,7 +4331,7 @@
         <v>1338.576908081955</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -4354,7 +4354,7 @@
         <v>1285.34076097042</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
@@ -4377,7 +4377,7 @@
         <v>1375.2707431425201</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -4400,7 +4400,7 @@
         <v>965.5103973931715</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -4423,7 +4423,7 @@
         <v>1850.813304169395</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -4446,7 +4446,7 @@
         <v>1881.8569145942599</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -4469,7 +4469,7 @@
         <v>1170.816613023685</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -4492,7 +4492,7 @@
         <v>1164.9827608027149</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -4515,7 +4515,7 @@
         <v>960.91251681216454</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -4538,7 +4538,7 @@
         <v>1112.1574317587751</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
@@ -4561,7 +4561,7 @@
         <v>1560.17107592766</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -4584,7 +4584,7 @@
         <v>2154.4431454748051</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -4607,7 +4607,7 @@
         <v>1295.6771138760951</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -4630,7 +4630,7 @@
         <v>2315.2093122535853</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
@@ -4653,7 +4653,7 @@
         <v>850.34158794809241</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -4676,7 +4676,7 @@
         <v>1217.079866440225</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -4699,7 +4699,7 @@
         <v>1148.8043730772702</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -4722,7 +4722,7 @@
         <v>1074.43569037719</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
@@ -4745,7 +4745,7 @@
         <v>916.70410903540505</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
@@ -4768,7 +4768,7 @@
         <v>882.61911756977349</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
@@ -4791,7 +4791,7 @@
         <v>906.61586951462903</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
@@ -4814,7 +4814,7 @@
         <v>1327.9678921776049</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
@@ -4837,7 +4837,7 @@
         <v>1445.3146101677548</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
@@ -4860,7 +4860,7 @@
         <v>1151.7180010560551</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
@@ -4883,7 +4883,7 @@
         <v>2417.5288406452651</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
@@ -4906,7 +4906,7 @@
         <v>2891.788388359395</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
@@ -4929,7 +4929,7 @@
         <v>2357.7040689793803</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
@@ -4952,7 +4952,7 @@
         <v>1689.94298637048</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
@@ -4975,7 +4975,7 @@
         <v>1317.4403403179649</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
@@ -4998,7 +4998,7 @@
         <v>1095.5313242912348</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
@@ -5021,7 +5021,7 @@
         <v>1394.2697424263952</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
@@ -5044,7 +5044,7 @@
         <v>1119.38737207141</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
@@ -5067,7 +5067,7 @@
         <v>2205.3337611688999</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
@@ -5090,7 +5090,7 @@
         <v>1377.3939375815098</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
@@ -5113,7 +5113,7 @@
         <v>2738.2239796184049</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
@@ -5136,7 +5136,7 @@
         <v>1355.6143460190899</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
@@ -5159,7 +5159,7 @@
         <v>1114.94372597343</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
@@ -5182,7 +5182,7 @@
         <v>1236.5464632287551</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
@@ -5205,7 +5205,7 @@
         <v>1032.1879121608049</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
@@ -5228,7 +5228,7 @@
         <v>923.049033650875</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
@@ -5251,7 +5251,7 @@
         <v>1268.36039333842</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
@@ -5274,7 +5274,7 @@
         <v>3385.513627559325</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
@@ -5297,7 +5297,7 @@
         <v>1983.87780859944</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
@@ -5320,7 +5320,7 @@
         <v>1581.580402158475</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
@@ -5343,7 +5343,7 @@
         <v>935.12398326210246</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
@@ -5366,7 +5366,7 @@
         <v>1353.917335807565</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
@@ -5389,7 +5389,7 @@
         <v>1051.607993807655</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="24" x14ac:dyDescent="0.2">
@@ -5412,7 +5412,7 @@
         <v>2211.5368245127202</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -5435,7 +5435,7 @@
         <v>2527.2089702152498</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
@@ -5458,7 +5458,7 @@
         <v>1174.1569687034198</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
@@ -5481,7 +5481,7 @@
         <v>1530.8396725310899</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
@@ -5504,7 +5504,7 @@
         <v>907.79322816358103</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
@@ -5527,7 +5527,7 @@
         <v>980.46896358311699</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
@@ -5550,7 +5550,7 @@
         <v>884.24104651293101</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
@@ -5573,7 +5573,7 @@
         <v>1348.8738148637199</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
@@ -5596,7 +5596,7 @@
         <v>991.74548776345148</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
@@ -5619,7 +5619,7 @@
         <v>1024.980783050685</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
@@ -5642,7 +5642,7 @@
         <v>1287.8565989835452</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
@@ -5665,7 +5665,7 @@
         <v>998.50886353509509</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
@@ -5688,7 +5688,7 @@
         <v>1469.7591233646999</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
@@ -5711,7 +5711,7 @@
         <v>1043.6685702381801</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
@@ -5734,7 +5734,7 @@
         <v>942.18285708821304</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
@@ -5757,7 +5757,7 @@
         <v>1477.8318385704151</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
@@ -5780,7 +5780,7 @@
         <v>971.722847347266</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
@@ -5803,7 +5803,7 @@
         <v>1283.5502953128698</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
@@ -5826,7 +5826,7 @@
         <v>1216.7563065624399</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
@@ -5849,7 +5849,7 @@
         <v>1351.3415616099701</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
@@ -5872,7 +5872,7 @@
         <v>1692.9719387902501</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
@@ -5895,7 +5895,7 @@
         <v>2078.9452056714954</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
@@ -5918,7 +5918,7 @@
         <v>2576.355466201795</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
@@ -5941,7 +5941,7 @@
         <v>1414.23549251073</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
@@ -5964,7 +5964,7 @@
         <v>893.31190680120903</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
@@ -5987,7 +5987,7 @@
         <v>1297.3867889897399</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
@@ -6010,7 +6010,7 @@
         <v>765.822167698155</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
@@ -6033,7 +6033,7 @@
         <v>1211.24166752153</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
@@ -6056,7 +6056,7 @@
         <v>1405.45409013019</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
@@ -6079,7 +6079,7 @@
         <v>1354.1597443773599</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
@@ -6102,7 +6102,7 @@
         <v>1377.8983609623201</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
@@ -6125,7 +6125,7 @@
         <v>1003.9610752778251</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
@@ -6148,7 +6148,7 @@
         <v>1972.0164290995699</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
@@ -6171,7 +6171,7 @@
         <v>1918.1256610016599</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
@@ -6194,7 +6194,7 @@
         <v>1231.23198273305</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
@@ -6217,7 +6217,7 @@
         <v>1282.3125127211651</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
@@ -6240,7 +6240,7 @@
         <v>992.563793921468</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
@@ -6263,7 +6263,7 @@
         <v>1135.012105652115</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
@@ -6286,7 +6286,7 @@
         <v>1669.7154176665099</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
@@ -6309,7 +6309,7 @@
         <v>2259.1509736036751</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
@@ -6332,7 +6332,7 @@
         <v>1362.5558368209699</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
@@ -6355,7 +6355,7 @@
         <v>2376.4522623099601</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
@@ -6378,7 +6378,7 @@
         <v>902.511160059914</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
@@ -6401,7 +6401,7 @@
         <v>1302.70539372434</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
@@ -6424,7 +6424,7 @@
         <v>1209.873385382145</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
@@ -6447,7 +6447,7 @@
         <v>1104.4735180068401</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
@@ -6470,7 +6470,7 @@
         <v>968.02298906710098</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
@@ -6493,7 +6493,7 @@
         <v>915.02647162897449</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
@@ -6516,7 +6516,7 @@
         <v>936.31496803351592</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
@@ -6539,7 +6539,7 @@
         <v>1366.5205079205</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
@@ -6562,7 +6562,7 @@
         <v>1437.4713365427901</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
@@ -6585,7 +6585,7 @@
         <v>1204.4017831035198</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
@@ -6608,7 +6608,7 @@
         <v>2528.9881727677448</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
@@ -6631,7 +6631,7 @@
         <v>2941.311373108615</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
@@ -6654,7 +6654,7 @@
         <v>2462.9338092357248</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
@@ -6677,7 +6677,7 @@
         <v>1716.8947302542351</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
@@ -6700,7 +6700,7 @@
         <v>1368.986056145895</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
@@ -6723,7 +6723,7 @@
         <v>1165.27762974237</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
@@ -6746,7 +6746,7 @@
         <v>1437.6825582829001</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
@@ -6769,7 +6769,7 @@
         <v>1150.622401000225</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
@@ -6792,7 +6792,7 @@
         <v>2315.1124425160901</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
@@ -6815,7 +6815,7 @@
         <v>1407.8189869919499</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
@@ -6838,7 +6838,7 @@
         <v>2859.3723047838798</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
@@ -6861,7 +6861,7 @@
         <v>1414.2242905674998</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
@@ -6884,7 +6884,7 @@
         <v>1181.1603281238149</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
@@ -6907,7 +6907,7 @@
         <v>1299.4172835356349</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
@@ -6930,7 +6930,7 @@
         <v>1088.81626791704</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
@@ -6953,7 +6953,7 @@
         <v>964.84473099185948</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
@@ -6976,7 +6976,7 @@
         <v>1325.88993119415</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
@@ -6999,7 +6999,7 @@
         <v>3464.5060746735353</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
@@ -7022,7 +7022,7 @@
         <v>2014.9837224533699</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
@@ -7045,7 +7045,7 @@
         <v>1647.5782538399849</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
@@ -7068,7 +7068,7 @@
         <v>967.38144742007694</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
@@ -7091,7 +7091,7 @@
         <v>1387.2458198098</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
@@ -7114,7 +7114,7 @@
         <v>1067.9111626189251</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="24" x14ac:dyDescent="0.2">
@@ -7137,7 +7137,7 @@
         <v>2253.7611932467498</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
@@ -7160,7 +7160,7 @@
         <v>2582.1274550191101</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
@@ -7183,7 +7183,7 @@
         <v>1255.2923365717349</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
@@ -7206,7 +7206,7 @@
         <v>1571.097239705945</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
@@ -7229,7 +7229,7 @@
         <v>953.76543685500451</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
@@ -7252,7 +7252,7 @@
         <v>1009.940834073145</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
@@ -7275,7 +7275,7 @@
         <v>921.4455813183049</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
@@ -7298,7 +7298,7 @@
         <v>1358.924316716965</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
@@ -7321,7 +7321,7 @@
         <v>1015.95552642885</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
@@ -7344,7 +7344,7 @@
         <v>1067.55760531648</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
@@ -7367,7 +7367,7 @@
         <v>1360.4153128212799</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
@@ -7390,7 +7390,7 @@
         <v>1054.4002910436998</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
@@ -7413,7 +7413,7 @@
         <v>1580.0970231577451</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
@@ -7436,7 +7436,7 @@
         <v>1126.95245141891</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
@@ -7459,7 +7459,7 @@
         <v>978.79346694910305</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
@@ -7482,7 +7482,7 @@
         <v>1556.615948074435</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
@@ -7505,7 +7505,7 @@
         <v>999.18769919238753</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
@@ -7528,7 +7528,7 @@
         <v>1357.248168265415</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
@@ -7551,7 +7551,7 @@
         <v>1258.15380191596</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
@@ -7574,7 +7574,7 @@
         <v>1387.3483676657002</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
@@ -7597,7 +7597,7 @@
         <v>1804.5613318082851</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
@@ -7620,7 +7620,7 @@
         <v>2123.2808323751251</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
@@ -7643,7 +7643,7 @@
         <v>2674.988970450785</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
@@ -7666,7 +7666,7 @@
         <v>1469.1282671274548</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
@@ -7689,7 +7689,7 @@
         <v>915.8022696821954</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
@@ -7712,7 +7712,7 @@
         <v>1354.5583155672898</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
@@ -7735,7 +7735,7 @@
         <v>785.52608117029445</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
@@ -7758,7 +7758,7 @@
         <v>1278.5492875668751</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
@@ -7781,7 +7781,7 @@
         <v>1466.0489263026002</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
@@ -7804,7 +7804,7 @@
         <v>1436.4268222560149</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
@@ -7827,7 +7827,7 @@
         <v>1415.8957778108199</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
@@ -7850,7 +7850,7 @@
         <v>1038.4496742414299</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
@@ -7873,7 +7873,7 @@
         <v>2017.8133675101949</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
@@ -7896,7 +7896,7 @@
         <v>1946.901554801555</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
@@ -7919,7 +7919,7 @@
         <v>1311.4847333974249</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
@@ -7942,7 +7942,7 @@
         <v>1414.749734642885</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
@@ -7965,7 +7965,7 @@
         <v>1019.68806971515</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
@@ -7988,7 +7988,7 @@
         <v>1161.9017672595151</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
@@ -8011,7 +8011,7 @@
         <v>1773.643478612785</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
@@ -8034,7 +8034,7 @@
         <v>2318.88285182754</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
@@ -8057,7 +8057,7 @@
         <v>1457.9361026463798</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
@@ -8080,7 +8080,7 @@
         <v>2414.2692018538601</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
@@ -8103,7 +8103,7 @@
         <v>950.3423729889571</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
@@ -8126,7 +8126,7 @@
         <v>1371.522700616845</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
@@ -8149,7 +8149,7 @@
         <v>1266.8993825438101</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
@@ -8172,7 +8172,7 @@
         <v>1141.1699480356551</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
@@ -8195,7 +8195,7 @@
         <v>997.81838372755192</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
@@ -8218,7 +8218,7 @@
         <v>941.838070352008</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
@@ -8241,7 +8241,7 @@
         <v>963.09391112554351</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
@@ -8264,7 +8264,7 @@
         <v>1387.491032972745</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
@@ -8287,7 +8287,7 @@
         <v>1456.9255885238499</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
@@ -8310,7 +8310,7 @@
         <v>1255.20925055217</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
@@ -8333,7 +8333,7 @@
         <v>2613.0414647657253</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
@@ -8356,7 +8356,7 @@
         <v>3024.7694279603147</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
@@ -8379,7 +8379,7 @@
         <v>2563.5790629540797</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
@@ -8402,7 +8402,7 @@
         <v>1765.868080925155</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
@@ -8425,7 +8425,7 @@
         <v>1385.592587140155</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
@@ -8448,7 +8448,7 @@
         <v>1264.8237003976101</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
@@ -8471,7 +8471,7 @@
         <v>1487.6907654571251</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
@@ -8494,7 +8494,7 @@
         <v>1197.98516569002</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
@@ -8517,7 +8517,7 @@
         <v>2395.4175449171998</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.2">
@@ -8540,7 +8540,7 @@
         <v>1464.6064961385</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.2">
@@ -8563,7 +8563,7 @@
         <v>2909.2917065164102</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
@@ -8586,7 +8586,7 @@
         <v>1481.4956449490551</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.2">
@@ -8609,7 +8609,7 @@
         <v>1231.0201195534601</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.2">
@@ -8632,7 +8632,7 @@
         <v>1352.0078250788999</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
@@ -8655,7 +8655,7 @@
         <v>1129.6062381050949</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.2">
@@ -8678,7 +8678,7 @@
         <v>1014.8073477801049</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.2">
@@ -8701,7 +8701,7 @@
         <v>1398.6886026131951</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.2">
@@ -8724,7 +8724,7 @@
         <v>3514.0498297225949</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.2">
@@ -8747,7 +8747,7 @@
         <v>2092.3889698638</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.2">
@@ -8770,7 +8770,7 @@
         <v>1701.028077996355</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.2">
@@ -8793,7 +8793,7 @@
         <v>1009.1239112475851</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.2">
@@ -8816,7 +8816,7 @@
         <v>1456.0252133187601</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.2">
@@ -8839,7 +8839,7 @@
         <v>1092.183066836435</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="24" x14ac:dyDescent="0.2">
@@ -8862,7 +8862,7 @@
         <v>2321.9405697216753</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.2">
@@ -8885,7 +8885,7 @@
         <v>2664.3946713822202</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.2">
@@ -8908,7 +8908,7 @@
         <v>1337.000671580575</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.2">
@@ -8931,7 +8931,7 @@
         <v>1621.4619748610651</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.2">
@@ -8954,7 +8954,7 @@
         <v>1010.51349375189</v>
       </c>
       <c r="G328" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.2">
@@ -8977,7 +8977,7 @@
         <v>1042.5203637787299</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.2">
@@ -9000,7 +9000,7 @@
         <v>964.22065366597144</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.2">
@@ -9023,7 +9023,7 @@
         <v>1388.7759988686198</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.2">
@@ -9046,7 +9046,7 @@
         <v>1045.6386248357749</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.2">
@@ -9069,7 +9069,7 @@
         <v>1108.9612603624701</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.2">
@@ -9092,7 +9092,7 @@
         <v>1441.5269358585902</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.2">
@@ -9115,7 +9115,7 @@
         <v>1120.244633992985</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.2">
@@ -9138,7 +9138,7 @@
         <v>1663.954951585655</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.2">
@@ -9161,7 +9161,7 @@
         <v>1231.4241636099</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.2">
@@ -9184,7 +9184,7 @@
         <v>1022.2322853588851</v>
       </c>
       <c r="G338" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.2">
@@ -9207,7 +9207,7 @@
         <v>1633.3708038458251</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.2">
@@ -9230,7 +9230,7 @@
         <v>1037.568354733555</v>
       </c>
       <c r="G340" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.2">
@@ -9253,7 +9253,7 @@
         <v>1433.016166525905</v>
       </c>
       <c r="G341" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.2">
@@ -9276,7 +9276,7 @@
         <v>1320.22428991365</v>
       </c>
       <c r="G342" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.2">
@@ -9299,7 +9299,7 @@
         <v>1431.27119122875</v>
       </c>
       <c r="G343" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.2">
@@ -9322,7 +9322,7 @@
         <v>1903.0382985874849</v>
       </c>
       <c r="G344" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.2">
@@ -9345,7 +9345,7 @@
         <v>2155.3382233229249</v>
       </c>
       <c r="G345" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.2">
@@ -9368,7 +9368,7 @@
         <v>2793.3613077774648</v>
       </c>
       <c r="G346" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.2">
@@ -9391,7 +9391,7 @@
         <v>1519.7281747018101</v>
       </c>
       <c r="G347" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.2">
@@ -9414,7 +9414,7 @@
         <v>941.04363144388549</v>
       </c>
       <c r="G348" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.2">
@@ -9437,7 +9437,7 @@
         <v>1433.487758792565</v>
       </c>
       <c r="G349" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.2">
@@ -9460,7 +9460,7 @@
         <v>802.48703314455452</v>
       </c>
       <c r="G350" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.2">
@@ -9483,7 +9483,7 @@
         <v>1353.694326861425</v>
       </c>
       <c r="G351" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.2">
@@ -9506,7 +9506,7 @@
         <v>1523.154046296195</v>
       </c>
       <c r="G352" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.2">
@@ -9529,7 +9529,7 @@
         <v>1497.9932825992501</v>
       </c>
       <c r="G353" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.2">
@@ -9552,7 +9552,7 @@
         <v>1451.54512422061</v>
       </c>
       <c r="G354" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.2">
@@ -9575,7 +9575,7 @@
         <v>1068.1465101641102</v>
       </c>
       <c r="G355" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.2">
@@ -9598,7 +9598,7 @@
         <v>2123.70276613939</v>
       </c>
       <c r="G356" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.2">
@@ -9621,7 +9621,7 @@
         <v>1988.8477635638851</v>
       </c>
       <c r="G357" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.2">
@@ -9644,7 +9644,7 @@
         <v>1398.86435061682</v>
       </c>
       <c r="G358" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.2">
@@ -9667,7 +9667,7 @@
         <v>1493.2498150394249</v>
       </c>
       <c r="G359" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.2">
@@ -9690,7 +9690,7 @@
         <v>1051.035683110865</v>
       </c>
       <c r="G360" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.2">
@@ -9713,7 +9713,7 @@
         <v>1175.2166543524199</v>
       </c>
       <c r="G361" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.2">
@@ -9736,7 +9736,7 @@
         <v>1838.4987366191449</v>
       </c>
       <c r="G362" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.2">
@@ -9759,7 +9759,7 @@
         <v>2407.7512968183701</v>
       </c>
       <c r="G363" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.2">
@@ -9782,7 +9782,7 @@
         <v>1517.2920907811949</v>
       </c>
       <c r="G364" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.2">
@@ -9805,7 +9805,7 @@
         <v>2471.0001769855799</v>
       </c>
       <c r="G365" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.2">
@@ -9828,7 +9828,7 @@
         <v>1011.8856715816351</v>
       </c>
       <c r="G366" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.2">
@@ -9851,7 +9851,7 @@
         <v>1491.7424850355401</v>
       </c>
       <c r="G367" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.2">
@@ -9874,7 +9874,7 @@
         <v>1315.0102587052299</v>
       </c>
       <c r="G368" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.2">
@@ -9897,7 +9897,7 @@
         <v>1180.281203407505</v>
       </c>
       <c r="G369" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.2">
@@ -9920,7 +9920,7 @@
         <v>1060.0769045491302</v>
       </c>
       <c r="G370" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.2">
@@ -9943,7 +9943,7 @@
         <v>976.93599649581392</v>
       </c>
       <c r="G371" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.2">
@@ -9966,7 +9966,7 @@
         <v>984.45639147748307</v>
       </c>
       <c r="G372" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.2">
@@ -9989,7 +9989,7 @@
         <v>1432.16340033196</v>
       </c>
       <c r="G373" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.2">
@@ -10012,7 +10012,7 @@
         <v>1475.4912557433099</v>
       </c>
       <c r="G374" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.2">
@@ -10035,7 +10035,7 @@
         <v>1323.6002266153801</v>
       </c>
       <c r="G375" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.2">
@@ -10058,7 +10058,7 @@
         <v>2686.9572799225252</v>
       </c>
       <c r="G376" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.2">
@@ -10081,7 +10081,7 @@
         <v>2984.6239452291102</v>
       </c>
       <c r="G377" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.2">
@@ -10104,7 +10104,7 @@
         <v>2524.0379055142403</v>
       </c>
       <c r="G378" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.2">
@@ -10127,7 +10127,7 @@
         <v>1767.1651382444149</v>
       </c>
       <c r="G379" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.2">
@@ -10150,7 +10150,7 @@
         <v>1369.6953102173652</v>
       </c>
       <c r="G380" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.2">
@@ -10173,7 +10173,7 @@
         <v>1328.3324063202049</v>
       </c>
       <c r="G381" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.2">
@@ -10196,7 +10196,7 @@
         <v>1504.6947418385798</v>
       </c>
       <c r="G382" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.2">
@@ -10219,7 +10219,7 @@
         <v>1208.5462342031951</v>
       </c>
       <c r="G383" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.2">
@@ -10242,7 +10242,7 @@
         <v>2430.5249113592199</v>
       </c>
       <c r="G384" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.2">
@@ -10265,7 +10265,7 @@
         <v>1462.0593491296199</v>
       </c>
       <c r="G385" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.2">
@@ -10288,7 +10288,7 @@
         <v>2875.3910185793502</v>
       </c>
       <c r="G386" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.2">
@@ -10311,7 +10311,7 @@
         <v>1468.7757837956301</v>
       </c>
       <c r="G387" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.2">
@@ -10334,7 +10334,7 @@
         <v>1253.22877390335</v>
       </c>
       <c r="G388" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.2">
@@ -10357,7 +10357,7 @@
         <v>1388.49999513693</v>
       </c>
       <c r="G389" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.2">
@@ -10380,7 +10380,7 @@
         <v>1179.553307518715</v>
       </c>
       <c r="G390" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.2">
@@ -10403,7 +10403,7 @@
         <v>1072.3197860862251</v>
       </c>
       <c r="G391" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.2">
@@ -10426,7 +10426,7 @@
         <v>1409.0878221245748</v>
       </c>
       <c r="G392" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.2">
@@ -10449,7 +10449,7 @@
         <v>3469.9995806714796</v>
       </c>
       <c r="G393" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.2">
@@ -10472,7 +10472,7 @@
         <v>2101.6064860911101</v>
       </c>
       <c r="G394" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.2">
@@ -10495,7 +10495,7 @@
         <v>1701.8222642820351</v>
       </c>
       <c r="G395" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.2">
@@ -10518,7 +10518,7 @@
         <v>1029.7130983891</v>
       </c>
       <c r="G396" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.2">
@@ -10541,7 +10541,7 @@
         <v>1479.533343823545</v>
       </c>
       <c r="G397" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.2">
@@ -10564,7 +10564,7 @@
         <v>1143.1358719164</v>
       </c>
       <c r="G398" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="399" spans="1:7" ht="24" x14ac:dyDescent="0.2">
@@ -10587,7 +10587,7 @@
         <v>2316.8198030323902</v>
       </c>
       <c r="G399" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.2">
@@ -10610,7 +10610,7 @@
         <v>2689.7540859053297</v>
       </c>
       <c r="G400" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.2">
@@ -10633,7 +10633,7 @@
         <v>1362.8995483091649</v>
       </c>
       <c r="G401" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.2">
@@ -10656,7 +10656,7 @@
         <v>1632.8284671936699</v>
       </c>
       <c r="G402" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.2">
@@ -10679,7 +10679,7 @@
         <v>1044.1245377390201</v>
       </c>
       <c r="G403" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.2">
@@ -10702,7 +10702,7 @@
         <v>1077.19348126759</v>
       </c>
       <c r="G404" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.2">
@@ -10725,7 +10725,7 @@
         <v>1025.8197255268251</v>
       </c>
       <c r="G405" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.2">
@@ -10748,7 +10748,7 @@
         <v>1400.1506506850801</v>
       </c>
       <c r="G406" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.2">
@@ -10771,7 +10771,7 @@
         <v>1070.65695918659</v>
       </c>
       <c r="G407" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.2">
@@ -10794,7 +10794,7 @@
         <v>1146.9371137380749</v>
       </c>
       <c r="G408" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.2">
@@ -10817,7 +10817,7 @@
         <v>1501.8313640945</v>
       </c>
       <c r="G409" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.2">
@@ -10840,7 +10840,7 @@
         <v>1166.41171935074</v>
       </c>
       <c r="G410" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.2">
@@ -10863,7 +10863,7 @@
         <v>1722.4529014485252</v>
       </c>
       <c r="G411" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.2">
@@ -10886,7 +10886,7 @@
         <v>1294.5982753338199</v>
       </c>
       <c r="G412" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.2">
@@ -10909,7 +10909,7 @@
         <v>1073.39249418444</v>
       </c>
       <c r="G413" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.2">
@@ -10932,7 +10932,7 @@
         <v>1646.6688384126001</v>
       </c>
       <c r="G414" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.2">
@@ -10955,7 +10955,7 @@
         <v>1076.1575581965299</v>
       </c>
       <c r="G415" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.2">
@@ -10978,7 +10978,7 @@
         <v>1487.8242191925001</v>
       </c>
       <c r="G416" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.2">
@@ -11001,7 +11001,7 @@
         <v>1340.3249515058801</v>
       </c>
       <c r="G417" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.2">
@@ -11024,7 +11024,7 @@
         <v>1455.645147745975</v>
       </c>
       <c r="G418" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.2">
@@ -11047,7 +11047,7 @@
         <v>1940.7423594177699</v>
       </c>
       <c r="G419" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.2">
@@ -11070,7 +11070,7 @@
         <v>2177.5219695832047</v>
       </c>
       <c r="G420" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.2">
@@ -11093,7 +11093,7 @@
         <v>2781.96355181749</v>
       </c>
       <c r="G421" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.2">
@@ -11116,7 +11116,7 @@
         <v>1549.6692711473202</v>
       </c>
       <c r="G422" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.2">
@@ -11139,7 +11139,7 @@
         <v>975.16703285671451</v>
       </c>
       <c r="G423" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.2">
@@ -11162,7 +11162,7 @@
         <v>1502.564136864285</v>
       </c>
       <c r="G424" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.2">
@@ -11185,7 +11185,7 @@
         <v>831.09529550202797</v>
       </c>
       <c r="G425" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.2">
@@ -11208,7 +11208,7 @@
         <v>1379.7659217539449</v>
       </c>
       <c r="G426" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.2">
@@ -11231,7 +11231,7 @@
         <v>1543.2660106666399</v>
       </c>
       <c r="G427" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.2">
@@ -11254,7 +11254,7 @@
         <v>1538.17003429232</v>
       </c>
       <c r="G428" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.2">
@@ -11277,7 +11277,7 @@
         <v>1480.0361243626949</v>
       </c>
       <c r="G429" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.2">
@@ -11300,7 +11300,7 @@
         <v>1093.0917471989301</v>
       </c>
       <c r="G430" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.2">
@@ -11323,7 +11323,7 @@
         <v>2168.5643579933949</v>
       </c>
       <c r="G431" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.2">
@@ -11346,7 +11346,7 @@
         <v>1985.020941380455</v>
       </c>
       <c r="G432" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.2">
@@ -11369,7 +11369,7 @@
         <v>1415.8465913830951</v>
       </c>
       <c r="G433" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.2">
@@ -11392,7 +11392,7 @@
         <v>1614.9922173765899</v>
       </c>
       <c r="G434" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.2">
@@ -11415,7 +11415,7 @@
         <v>1068.7598699469149</v>
       </c>
       <c r="G435" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.2">
@@ -11438,7 +11438,7 @@
         <v>1203.8276093422051</v>
       </c>
       <c r="G436" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.2">
@@ -11461,7 +11461,7 @@
         <v>1910.89965993957</v>
       </c>
       <c r="G437" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.2">
@@ -11484,7 +11484,7 @@
         <v>2446.9611098854948</v>
       </c>
       <c r="G438" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.2">
@@ -11507,7 +11507,7 @@
         <v>1525.504322101305</v>
       </c>
       <c r="G439" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.2">
@@ -11530,7 +11530,7 @@
         <v>2461.1993556307898</v>
       </c>
       <c r="G440" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.2">
@@ -11553,7 +11553,7 @@
         <v>1058.0408158274449</v>
       </c>
       <c r="G441" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.2">
@@ -11576,7 +11576,7 @@
         <v>1551.91025660841</v>
       </c>
       <c r="G442" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.2">
@@ -11599,7 +11599,7 @@
         <v>1342.10828079168</v>
       </c>
       <c r="G443" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.2">
@@ -11622,7 +11622,7 @@
         <v>1211.1967089198201</v>
       </c>
       <c r="G444" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.2">
@@ -11645,7 +11645,7 @@
         <v>1117.5313625220201</v>
       </c>
       <c r="G445" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.2">
@@ -11668,7 +11668,7 @@
         <v>1014.877099361785</v>
       </c>
       <c r="G446" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.2">
@@ -11691,7 +11691,7 @@
         <v>1023.53561444911</v>
       </c>
       <c r="G447" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.2">
@@ -11714,7 +11714,7 @@
         <v>1439.7082160730201</v>
       </c>
       <c r="G448" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.2">
@@ -11737,7 +11737,7 @@
         <v>1486.54691615301</v>
       </c>
       <c r="G449" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.2">
@@ -11760,7 +11760,7 @@
         <v>1332.619249107895</v>
       </c>
       <c r="G450" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.2">
@@ -11783,7 +11783,7 @@
         <v>2651.0786561728901</v>
       </c>
       <c r="G451" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.2">
@@ -11806,7 +11806,7 @@
         <v>2883.3524699314548</v>
       </c>
       <c r="G452" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.2">
@@ -11829,7 +11829,7 @@
         <v>2593.1469386100653</v>
       </c>
       <c r="G453" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.2">
@@ -11852,7 +11852,7 @@
         <v>1811.45919842442</v>
       </c>
       <c r="G454" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.2">
@@ -11875,7 +11875,7 @@
         <v>1455.6000697560451</v>
       </c>
       <c r="G455" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.2">
@@ -11898,7 +11898,7 @@
         <v>1566.5579421974901</v>
       </c>
       <c r="G456" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.2">
@@ -11921,7 +11921,7 @@
         <v>1564.999042988785</v>
       </c>
       <c r="G457" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.2">
@@ -11944,7 +11944,7 @@
         <v>1315.11770955462</v>
       </c>
       <c r="G458" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.2">
@@ -11967,7 +11967,7 @@
         <v>2678.4173792425649</v>
       </c>
       <c r="G459" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.2">
@@ -11990,7 +11990,7 @@
         <v>1602.1849250359701</v>
       </c>
       <c r="G460" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.2">
@@ -12013,7 +12013,7 @@
         <v>2867.8591468094446</v>
       </c>
       <c r="G461" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.2">
@@ -12036,7 +12036,7 @@
         <v>1668.5046919761648</v>
       </c>
       <c r="G462" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.2">
@@ -12059,7 +12059,7 @@
         <v>1460.63553057434</v>
       </c>
       <c r="G463" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.2">
@@ -12082,7 +12082,7 @@
         <v>1529.8260021726701</v>
       </c>
       <c r="G464" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.2">
@@ -12105,7 +12105,7 @@
         <v>1266.3370458356849</v>
       </c>
       <c r="G465" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.2">
@@ -12128,7 +12128,7 @@
         <v>1169.8286091895102</v>
       </c>
       <c r="G466" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.2">
@@ -12151,7 +12151,7 @@
         <v>1567.07886116388</v>
       </c>
       <c r="G467" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.2">
@@ -12174,7 +12174,7 @@
         <v>3438.9669966933002</v>
       </c>
       <c r="G468" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.2">
@@ -12197,7 +12197,7 @@
         <v>2107.42497335294</v>
       </c>
       <c r="G469" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.2">
@@ -12220,7 +12220,7 @@
         <v>1833.2691252920499</v>
       </c>
       <c r="G470" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.2">
@@ -12243,7 +12243,7 @@
         <v>1136.4383878096701</v>
       </c>
       <c r="G471" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.2">
@@ -12266,7 +12266,7 @@
         <v>1601.6519052889751</v>
       </c>
       <c r="G472" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.2">
@@ -12289,7 +12289,7 @@
         <v>1251.17791591281</v>
       </c>
       <c r="G473" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="474" spans="1:7" ht="24" x14ac:dyDescent="0.2">
@@ -12312,7 +12312,7 @@
         <v>2296.77875493282</v>
       </c>
       <c r="G474" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.2">
@@ -12335,7 +12335,7 @@
         <v>2672.1818932695301</v>
       </c>
       <c r="G475" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.2">
@@ -12358,7 +12358,7 @@
         <v>1637.03943080419</v>
       </c>
       <c r="G476" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.2">
@@ -12381,7 +12381,7 @@
         <v>1718.1326312648398</v>
       </c>
       <c r="G477" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.2">
@@ -12404,7 +12404,7 @@
         <v>1162.0863704056101</v>
       </c>
       <c r="G478" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.2">
@@ -12427,7 +12427,7 @@
         <v>1140.13186535461</v>
       </c>
       <c r="G479" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.2">
@@ -12450,7 +12450,7 @@
         <v>1180.0875027402699</v>
       </c>
       <c r="G480" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.2">
@@ -12473,7 +12473,7 @@
         <v>1534.4993741068652</v>
       </c>
       <c r="G481" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.2">
@@ -12496,7 +12496,7 @@
         <v>1117.44245067008</v>
       </c>
       <c r="G482" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.2">
@@ -12519,7 +12519,7 @@
         <v>1344.09419660757</v>
       </c>
       <c r="G483" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.2">
@@ -12542,7 +12542,7 @@
         <v>1790.8075702204551</v>
       </c>
       <c r="G484" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.2">
@@ -12565,7 +12565,7 @@
         <v>1357.9267164365151</v>
       </c>
       <c r="G485" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.2">
@@ -12588,7 +12588,7 @@
         <v>1939.1310548254701</v>
       </c>
       <c r="G486" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.2">
@@ -12611,7 +12611,7 @@
         <v>1571.1932286460551</v>
       </c>
       <c r="G487" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.2">
@@ -12634,7 +12634,7 @@
         <v>1162.5858707994801</v>
       </c>
       <c r="G488" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.2">
@@ -12657,7 +12657,7 @@
         <v>1828.694112633025</v>
       </c>
       <c r="G489" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.2">
@@ -12680,7 +12680,7 @@
         <v>1153.58935365855</v>
       </c>
       <c r="G490" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.2">
@@ -12703,7 +12703,7 @@
         <v>1705.3418326675401</v>
       </c>
       <c r="G491" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.2">
@@ -12726,7 +12726,7 @@
         <v>1489.4734074128701</v>
       </c>
       <c r="G492" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.2">
@@ -12749,7 +12749,7 @@
         <v>1672.179695245565</v>
       </c>
       <c r="G493" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.2">
@@ -12772,7 +12772,7 @@
         <v>2068.0904671395047</v>
       </c>
       <c r="G494" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.2">
@@ -12795,7 +12795,7 @@
         <v>2556.9978292116548</v>
       </c>
       <c r="G495" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.2">
@@ -12818,7 +12818,7 @@
         <v>2691.6703481251097</v>
       </c>
       <c r="G496" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.2">
@@ -12841,7 +12841,7 @@
         <v>1564.53550501121</v>
       </c>
       <c r="G497" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.2">
@@ -12864,7 +12864,7 @@
         <v>1083.611484031155</v>
       </c>
       <c r="G498" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.2">
@@ -12887,7 +12887,7 @@
         <v>1722.49809006894</v>
       </c>
       <c r="G499" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.2">
@@ -12910,7 +12910,7 @@
         <v>901.71702869564399</v>
       </c>
       <c r="G500" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.2">
@@ -12933,7 +12933,7 @@
         <v>1563.2219275238649</v>
       </c>
       <c r="G501" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.2">
@@ -12956,7 +12956,7 @@
         <v>1675.7474000340999</v>
       </c>
       <c r="G502" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.2">
@@ -12979,7 +12979,7 @@
         <v>1751.49017303302</v>
       </c>
       <c r="G503" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.2">
@@ -13002,7 +13002,7 @@
         <v>1550.587210883305</v>
       </c>
       <c r="G504" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.2">
@@ -13025,7 +13025,7 @@
         <v>1164.57588846621</v>
       </c>
       <c r="G505" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.2">
@@ -13048,7 +13048,7 @@
         <v>2323.4588881024752</v>
       </c>
       <c r="G506" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.2">
@@ -13071,7 +13071,7 @@
         <v>2108.71930042553</v>
       </c>
       <c r="G507" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.2">
@@ -13094,7 +13094,7 @@
         <v>1726.8316274021199</v>
       </c>
       <c r="G508" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.2">
@@ -13117,7 +13117,7 @@
         <v>2040.12982468675</v>
       </c>
       <c r="G509" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.2">
@@ -13140,7 +13140,7 @@
         <v>1166.199389952315</v>
       </c>
       <c r="G510" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.2">
@@ -13163,7 +13163,7 @@
         <v>1326.549767254375</v>
       </c>
       <c r="G511" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.2">
@@ -13186,7 +13186,7 @@
         <v>2252.6798167359502</v>
       </c>
       <c r="G512" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.2">
@@ -13209,7 +13209,7 @@
         <v>2631.7766301675251</v>
       </c>
       <c r="G513" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.2">
@@ -13232,7 +13232,7 @@
         <v>1698.8123573222751</v>
       </c>
       <c r="G514" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.2">
@@ -13255,7 +13255,7 @@
         <v>2733.9832931517149</v>
       </c>
       <c r="G515" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.2">
@@ -13278,7 +13278,7 @@
         <v>1130.8636223487351</v>
       </c>
       <c r="G516" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.2">
@@ -13301,7 +13301,7 @@
         <v>1668.3238352608701</v>
       </c>
       <c r="G517" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.2">
@@ -13324,7 +13324,7 @@
         <v>1393.2375626458902</v>
       </c>
       <c r="G518" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.2">
@@ -13347,7 +13347,7 @@
         <v>1279.2342000932249</v>
       </c>
       <c r="G519" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.2">
@@ -13370,7 +13370,7 @@
         <v>1236.9429793594149</v>
       </c>
       <c r="G520" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.2">
@@ -13393,7 +13393,7 @@
         <v>1062.5025824723</v>
       </c>
       <c r="G521" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.2">
@@ -13416,7 +13416,7 @@
         <v>1096.0506987306201</v>
       </c>
       <c r="G522" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.2">
@@ -13439,7 +13439,7 @@
         <v>1591.84564885803</v>
       </c>
       <c r="G523" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.2">
@@ -13462,7 +13462,7 @@
         <v>1596.22925853735</v>
       </c>
       <c r="G524" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.2">
@@ -13485,7 +13485,7 @@
         <v>1478.52722427254</v>
       </c>
       <c r="G525" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.2">
@@ -13508,7 +13508,7 @@
         <v>2644.09727410899</v>
       </c>
       <c r="G526" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -13523,7 +13523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13534,7 +13534,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -13549,7 +13549,7 @@
     </row>
     <row r="2" spans="1:11" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -13564,7 +13564,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -13573,7 +13573,7 @@
     <mergeCell ref="A2:K2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.zillow.com/research/methodology-zori-repeat-rent-27092/"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.zillow.com/research/methodology-zori-repeat-rent-27092/" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Datasets/Zillow_Rental_Rate_Smoothed.xlsx
+++ b/Datasets/Zillow_Rental_Rate_Smoothed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ea8e7c1a7f050da2/Documents/GitHub/project-one/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:40009_{09244657-76A1-4B36-8740-6B29AA50C925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39FD6CCD-BBC2-46F1-A087-B0D64E699162}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:40009_{09244657-76A1-4B36-8740-6B29AA50C925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45DA27DE-A48F-40AD-9844-3B7A0D4E64BE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,20 @@
     <sheet name="Zillow_Rental_Rate_Smoothed" sheetId="1" r:id="rId1"/>
     <sheet name="Description" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -955,7 +968,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -967,9 +980,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1027,6 +1037,9 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1067,9 +1080,6 @@
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1084,16 +1094,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G526" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G526" totalsRowShown="0" headerRowDxfId="0" dataDxfId="8" headerRowCellStyle="Normal">
   <autoFilter ref="A1:G526" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="City_Rank_by_Population(2021)" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="State" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="State_Abbrieviation" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="City" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Observation_Date" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Median_Typical_Rental_Rate" dataDxfId="1" dataCellStyle="Currency"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Data_Source_Link" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="City_Rank_by_Population(2021)" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="State" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="State_Abbrieviation" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="City" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Observation_Date" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Median_Typical_Rental_Rate" dataDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Data_Source_Link" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1399,7 +1409,7 @@
   <dimension ref="A1:G526"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1429,7 +1439,7 @@
       <c r="E1" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>144</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -13533,34 +13543,34 @@
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
